--- a/MARCHES EN COURS EXP.xlsx
+++ b/MARCHES EN COURS EXP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moutaouakkil\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zouheir\Angular\gestion-budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC5EB08-72E8-48B5-8554-551D17872257}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929921F7-B97F-4205-B579-D4C7171B55F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="673" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="673" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFOS GENERALES MARCHES" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,14 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -35,7 +43,7 @@
     <author>Moutaouakkil</author>
   </authors>
   <commentList>
-    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -49,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -73,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -98,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -122,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -146,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="K6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -159,7 +167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="K8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -185,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="J10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -209,7 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="K10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -223,7 +231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -248,7 +256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="K14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -262,7 +270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="G15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -277,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="K15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -302,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="K16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -328,7 +336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="D21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -357,7 +365,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D30" authorId="0" shapeId="0" xr:uid="{DEBD3287-2109-48E4-AC8B-C92420EA68E9}">
+    <comment ref="D28" authorId="0" shapeId="0" xr:uid="{DEBD3287-2109-48E4-AC8B-C92420EA68E9}">
       <text>
         <r>
           <rPr>
@@ -3439,6 +3447,96 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="3" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3448,16 +3546,40 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3469,30 +3591,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -3550,6 +3648,54 @@
     <xf numFmtId="17" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3572,54 +3718,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3643,102 +3741,12 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="3" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3755,7 +3763,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4051,627 +4059,627 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:L33"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J37" sqref="J37"/>
+      <selection pane="bottomRight" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="2"/>
-    <col min="2" max="2" width="34.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.88671875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="2"/>
+    <col min="2" max="2" width="34.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.85546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="15" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" style="2" customWidth="1"/>
-    <col min="7" max="8" width="11.5546875" style="2"/>
-    <col min="9" max="9" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.88671875" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="11.5546875" style="2"/>
+    <col min="6" max="6" width="14.5703125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="11.5703125" style="2"/>
+    <col min="9" max="9" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" s="27" customFormat="1" ht="43.8" thickBot="1">
-      <c r="B3" s="26" t="s">
+    <row r="1" spans="1:12" s="27" customFormat="1" ht="45.75" thickBot="1">
+      <c r="B1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C1" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="26" t="s">
+      <c r="E1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J1" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K1" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="28.8">
-      <c r="A4" s="227" t="s">
+    <row r="2" spans="1:12" ht="45">
+      <c r="A2" s="257" t="s">
         <v>77</v>
       </c>
+      <c r="B2" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="9">
+        <v>43175</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="9">
+        <v>44256</v>
+      </c>
+      <c r="H2" s="18">
+        <v>22212</v>
+      </c>
+      <c r="I2" s="18">
+        <v>740400</v>
+      </c>
+      <c r="J2" s="18">
+        <v>185100</v>
+      </c>
+      <c r="K2" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="258"/>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:12" ht="45">
+      <c r="A4" s="258"/>
       <c r="B4" s="73" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="E4" s="9">
-        <v>43175</v>
+        <v>43282</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="9">
-        <v>44256</v>
+        <v>44196</v>
       </c>
       <c r="H4" s="18">
-        <v>22212</v>
+        <v>4320</v>
       </c>
       <c r="I4" s="18">
-        <v>740400</v>
-      </c>
-      <c r="J4" s="18">
-        <v>185100</v>
+        <v>143996.88</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>61</v>
       </c>
       <c r="K4" s="7">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="228"/>
+      <c r="A5" s="258"/>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:12" ht="43.2">
-      <c r="A6" s="228"/>
-      <c r="B6" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="9">
-        <v>43282</v>
-      </c>
-      <c r="F6" s="8" t="s">
+    <row r="6" spans="1:12" ht="37.9" customHeight="1">
+      <c r="A6" s="258"/>
+      <c r="B6" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="4">
+        <v>43405</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="4">
         <v>44196</v>
       </c>
-      <c r="H6" s="18">
-        <v>4320</v>
-      </c>
-      <c r="I6" s="18">
-        <v>143996.88</v>
-      </c>
-      <c r="J6" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="K6" s="7">
-        <v>4</v>
+      <c r="H6" s="19">
+        <v>12466</v>
+      </c>
+      <c r="I6" s="19">
+        <v>415501.92</v>
+      </c>
+      <c r="J6" s="19">
+        <f>34625.16*3</f>
+        <v>103875.48000000001</v>
+      </c>
+      <c r="K6" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="228"/>
+      <c r="A7" s="258"/>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:12" ht="37.950000000000003" customHeight="1">
-      <c r="A8" s="228"/>
-      <c r="B8" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>64</v>
+    <row r="8" spans="1:12" ht="30">
+      <c r="A8" s="258"/>
+      <c r="B8" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="E8" s="4">
-        <v>43405</v>
+        <v>43556</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="4">
-        <v>44196</v>
+        <v>44652</v>
       </c>
       <c r="H8" s="19">
-        <v>12466</v>
+        <v>6908</v>
       </c>
       <c r="I8" s="19">
-        <v>415501.92</v>
+        <v>230256</v>
       </c>
       <c r="J8" s="19">
-        <f>34625.16*3</f>
-        <v>103875.48000000001</v>
+        <f>+I8/4</f>
+        <v>57564</v>
       </c>
       <c r="K8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="228"/>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:12" ht="28.8">
-      <c r="A10" s="228"/>
+      <c r="A9" s="258"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" ht="45.75" thickBot="1">
+      <c r="A10" s="259"/>
       <c r="B10" s="75" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="E10" s="4">
-        <v>43556</v>
+        <v>44016</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G10" s="4">
-        <v>44652</v>
-      </c>
-      <c r="H10" s="19">
-        <v>6908</v>
+        <v>45111</v>
+      </c>
+      <c r="H10" s="1">
+        <v>12564.14</v>
       </c>
       <c r="I10" s="19">
-        <v>230256</v>
+        <v>418804.56</v>
       </c>
       <c r="J10" s="19">
         <f>+I10/4</f>
-        <v>57564</v>
+        <v>104701.14</v>
       </c>
       <c r="K10" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="228"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" ht="29.4" thickBot="1">
-      <c r="A12" s="229"/>
-      <c r="B12" s="75" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="4">
-        <v>44016</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="A11" s="96"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="79">
+        <f>+I10+I8+I6+I4+I2</f>
+        <v>1948959.3599999999</v>
+      </c>
+      <c r="J11" s="79"/>
+      <c r="K11" s="28"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="96"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="28"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" ht="60">
+      <c r="A14" s="257" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="80">
+        <v>43466</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="4">
-        <v>45111</v>
-      </c>
-      <c r="H12" s="1">
-        <v>12564.14</v>
-      </c>
-      <c r="I12" s="19">
-        <v>418804.56</v>
-      </c>
-      <c r="J12" s="19">
-        <f>+I12/4</f>
-        <v>104701.14</v>
-      </c>
-      <c r="K12" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="96"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="79">
-        <f>+I12+I10+I8+I6+I4</f>
-        <v>1948959.3599999999</v>
-      </c>
-      <c r="J13" s="79"/>
-      <c r="K13" s="28"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="96"/>
-      <c r="B14" s="76"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="28"/>
-    </row>
-    <row r="15" spans="1:12" ht="15" thickBot="1">
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" ht="57.6">
-      <c r="A16" s="227" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" s="51" t="s">
-        <v>76</v>
+      <c r="G14" s="4">
+        <v>44562</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" s="155">
+        <f>74880*4</f>
+        <v>299520</v>
+      </c>
+      <c r="J14" s="19">
+        <v>74880</v>
+      </c>
+      <c r="K14" s="154">
+        <v>8</v>
+      </c>
+      <c r="L14" s="81" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="40.15" customHeight="1">
+      <c r="A15" s="258"/>
+      <c r="B15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="4">
+        <v>43900</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="4">
+        <v>44196</v>
+      </c>
+      <c r="H15" s="19">
+        <v>7927.2</v>
+      </c>
+      <c r="I15" s="19">
+        <v>264240</v>
+      </c>
+      <c r="J15" s="19">
+        <v>65954.3</v>
+      </c>
+      <c r="K15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="30.75" thickBot="1">
+      <c r="A16" s="259"/>
+      <c r="B16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>87</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E16" s="80">
-        <v>43466</v>
+        <v>86</v>
+      </c>
+      <c r="E16" s="4">
+        <v>44089</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G16" s="4">
-        <v>44562</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="I16" s="155">
-        <f>74880*4</f>
-        <v>299520</v>
-      </c>
-      <c r="J16" s="19">
-        <v>74880</v>
-      </c>
-      <c r="K16" s="154">
-        <v>8</v>
-      </c>
-      <c r="L16" s="81" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="40.200000000000003" customHeight="1">
-      <c r="A17" s="228"/>
-      <c r="B17" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="4">
-        <v>43900</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="4">
-        <v>44196</v>
-      </c>
-      <c r="H17" s="19">
-        <v>7927.2</v>
-      </c>
-      <c r="I17" s="19">
-        <v>264240</v>
-      </c>
-      <c r="J17" s="19">
-        <v>65954.3</v>
-      </c>
-      <c r="K17" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="29.4" thickBot="1">
-      <c r="A18" s="229"/>
-      <c r="B18" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E18" s="4">
-        <v>44089</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="4">
         <v>45184</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H16" s="19">
         <v>8139.76</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I16" s="19">
         <v>271325.52</v>
       </c>
-      <c r="J18" s="97">
-        <f>+I18/4</f>
+      <c r="J16" s="97">
+        <f>+I16/4</f>
         <v>67831.38</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K16" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="17" spans="1:11">
+      <c r="B17" s="29"/>
+      <c r="C17" s="2"/>
+      <c r="I17" s="47">
+        <f>+I16+I15</f>
+        <v>535565.52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="B18" s="29"/>
+      <c r="C18" s="2"/>
+      <c r="I18" s="47"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" thickBot="1">
       <c r="B19" s="29"/>
       <c r="C19" s="2"/>
-      <c r="I19" s="47">
-        <f>+I18+I17</f>
-        <v>535565.52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="B20" s="29"/>
-      <c r="C20" s="2"/>
-      <c r="I20" s="47"/>
-    </row>
-    <row r="21" spans="1:11" ht="15" thickBot="1">
-      <c r="B21" s="29"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:11" ht="28.8">
-      <c r="A22" s="227" t="s">
+    </row>
+    <row r="20" spans="1:11" ht="30">
+      <c r="A20" s="257" t="s">
         <v>124</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="C20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="153">
+        <v>43435</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="4">
+        <v>44531</v>
+      </c>
+      <c r="H20" s="19">
+        <v>5388</v>
+      </c>
+      <c r="I20" s="19">
+        <v>179596.79999999999</v>
+      </c>
+      <c r="J20" s="19">
+        <f>+I20/4</f>
+        <v>44899.199999999997</v>
+      </c>
+      <c r="K20" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="45">
+      <c r="A21" s="258"/>
+      <c r="B21" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="123" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="80">
+        <v>43497</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="4">
+        <v>44593</v>
+      </c>
+      <c r="H21" s="19">
+        <v>17538</v>
+      </c>
+      <c r="I21" s="19">
+        <v>292320</v>
+      </c>
+      <c r="J21" s="19">
+        <v>73080</v>
+      </c>
+      <c r="K21" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="30">
+      <c r="A22" s="258"/>
+      <c r="B22" s="124" t="s">
+        <v>115</v>
+      </c>
       <c r="C22" s="1" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="E22" s="153">
-        <v>43435</v>
+        <v>43753</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G22" s="4">
-        <v>44531</v>
+        <v>44849</v>
       </c>
       <c r="H22" s="19">
-        <v>5388</v>
+        <v>5934</v>
       </c>
       <c r="I22" s="19">
-        <v>179596.79999999999</v>
+        <v>98895.360000000001</v>
       </c>
       <c r="J22" s="19">
         <f>+I22/4</f>
-        <v>44899.199999999997</v>
+        <v>24723.84</v>
       </c>
       <c r="K22" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="43.2">
-      <c r="A23" s="228"/>
-      <c r="B23" s="1" t="s">
-        <v>111</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="45">
+      <c r="A23" s="258"/>
+      <c r="B23" s="127" t="s">
+        <v>121</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D23" s="123" t="s">
-        <v>120</v>
+        <v>122</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="E23" s="80">
-        <v>43497</v>
+        <v>43862</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G23" s="4">
-        <v>44593</v>
+        <v>44958</v>
       </c>
       <c r="H23" s="19">
-        <v>17538</v>
+        <v>4464</v>
       </c>
       <c r="I23" s="19">
-        <v>292320</v>
+        <v>148800</v>
       </c>
       <c r="J23" s="19">
-        <v>73080</v>
+        <f t="shared" ref="J23:J24" si="0">+I23/4</f>
+        <v>37200</v>
       </c>
       <c r="K23" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="28.8">
-      <c r="A24" s="228"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="30">
+      <c r="A24" s="258"/>
       <c r="B24" s="124" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E24" s="153">
-        <v>43753</v>
+        <v>119</v>
+      </c>
+      <c r="E24" s="4">
+        <v>44105</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G24" s="4">
-        <v>44849</v>
-      </c>
-      <c r="H24" s="19">
-        <v>5934</v>
+        <v>45200</v>
+      </c>
+      <c r="H24" s="1">
+        <v>17223</v>
       </c>
       <c r="I24" s="19">
-        <v>98895.360000000001</v>
+        <v>574070.89</v>
       </c>
       <c r="J24" s="19">
-        <f>+I24/4</f>
-        <v>24723.84</v>
-      </c>
-      <c r="K24" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="43.2">
-      <c r="A25" s="228"/>
-      <c r="B25" s="127" t="s">
-        <v>121</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E25" s="80">
-        <v>43862</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="4">
-        <v>44958</v>
-      </c>
-      <c r="H25" s="19">
-        <v>4464</v>
-      </c>
-      <c r="I25" s="19">
-        <v>148800</v>
-      </c>
-      <c r="J25" s="19">
-        <f t="shared" ref="J25:J26" si="0">+I25/4</f>
-        <v>37200</v>
-      </c>
-      <c r="K25" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="28.8">
-      <c r="A26" s="228"/>
-      <c r="B26" s="124" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E26" s="4">
-        <v>44105</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="4">
-        <v>45200</v>
-      </c>
-      <c r="H26" s="1">
-        <v>17223</v>
-      </c>
-      <c r="I26" s="19">
-        <v>574070.89</v>
-      </c>
-      <c r="J26" s="19">
         <f t="shared" si="0"/>
         <v>143517.7225</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K24" s="1">
         <v>13</v>
       </c>
     </row>
+    <row r="25" spans="1:11">
+      <c r="B25" s="29"/>
+      <c r="C25" s="2"/>
+      <c r="I25" s="157"/>
+      <c r="J25" s="47"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1">
+      <c r="B26" s="29"/>
+      <c r="C26" s="2"/>
+    </row>
     <row r="27" spans="1:11">
-      <c r="B27" s="29"/>
-      <c r="C27" s="2"/>
-      <c r="I27" s="157"/>
-      <c r="J27" s="47"/>
-    </row>
-    <row r="28" spans="1:11" ht="15" thickBot="1">
-      <c r="B28" s="29"/>
-      <c r="C28" s="2"/>
+      <c r="A27" s="257" t="s">
+        <v>188</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="153"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="258"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="227" t="s">
-        <v>188</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="153"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="1"/>
+      <c r="B29" s="28"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="228"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="123"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="1"/>
+      <c r="B30" s="28"/>
     </row>
     <row r="31" spans="1:11">
       <c r="B31" s="28"/>
     </row>
-    <row r="32" spans="1:11">
-      <c r="B32" s="28"/>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="28"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A4:A12"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A27:A28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -4686,50 +4694,50 @@
       <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="6"/>
-    <col min="2" max="2" width="14.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.88671875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="46.5546875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="46.77734375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" style="6"/>
-    <col min="7" max="7" width="28.109375" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="11.5546875" style="6"/>
+    <col min="1" max="1" width="11.5703125" style="6"/>
+    <col min="2" max="2" width="14.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="46.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="6"/>
+    <col min="7" max="7" width="28.140625" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="11.5703125" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="16.8">
-      <c r="C2" s="234" t="s">
+    <row r="2" spans="2:16" ht="16.5">
+      <c r="C2" s="272" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="234"/>
-      <c r="E2" s="234"/>
-      <c r="F2" s="234"/>
-      <c r="G2" s="234"/>
+      <c r="D2" s="272"/>
+      <c r="E2" s="272"/>
+      <c r="F2" s="272"/>
+      <c r="G2" s="272"/>
       <c r="N2" s="219"/>
       <c r="O2" s="219"/>
       <c r="P2" s="219"/>
     </row>
-    <row r="3" spans="2:16" ht="16.8">
+    <row r="3" spans="2:16" ht="17.25">
       <c r="C3" s="177"/>
       <c r="D3" s="178" t="s">
         <v>131</v>
       </c>
-      <c r="E3" s="234"/>
-      <c r="F3" s="234"/>
+      <c r="E3" s="272"/>
+      <c r="F3" s="272"/>
       <c r="G3" s="179"/>
       <c r="N3" s="219"/>
       <c r="O3" s="219"/>
       <c r="P3" s="219"/>
     </row>
-    <row r="4" spans="2:16" ht="16.2" thickBot="1">
-      <c r="C4" s="235" t="s">
+    <row r="4" spans="2:16" ht="16.5" thickBot="1">
+      <c r="C4" s="273" t="s">
         <v>132</v>
       </c>
-      <c r="D4" s="235"/>
-      <c r="E4" s="235"/>
-      <c r="F4" s="235"/>
-      <c r="G4" s="236"/>
+      <c r="D4" s="273"/>
+      <c r="E4" s="273"/>
+      <c r="F4" s="273"/>
+      <c r="G4" s="274"/>
       <c r="N4" s="219"/>
       <c r="O4" s="219"/>
       <c r="P4" s="219"/>
@@ -4767,7 +4775,7 @@
       <c r="O7" s="219"/>
       <c r="P7" s="219"/>
     </row>
-    <row r="8" spans="2:16" ht="15" thickBot="1">
+    <row r="8" spans="2:16" ht="15.75" thickBot="1">
       <c r="H8" s="224"/>
       <c r="I8" s="219" t="s">
         <v>184</v>
@@ -4780,7 +4788,7 @@
       <c r="O8" s="219"/>
       <c r="P8" s="219"/>
     </row>
-    <row r="9" spans="2:16" s="185" customFormat="1" ht="16.2" thickBot="1">
+    <row r="9" spans="2:16" s="185" customFormat="1" ht="16.5" thickBot="1">
       <c r="B9" s="180" t="s">
         <v>133</v>
       </c>
@@ -4794,7 +4802,7 @@
         <v>136</v>
       </c>
       <c r="F9" s="184"/>
-      <c r="G9" s="295" t="s">
+      <c r="G9" s="227" t="s">
         <v>187</v>
       </c>
       <c r="I9" s="220"/>
@@ -4806,11 +4814,11 @@
       <c r="O9" s="220"/>
       <c r="P9" s="220"/>
     </row>
-    <row r="10" spans="2:16" s="185" customFormat="1" ht="15.6">
-      <c r="B10" s="237" t="s">
+    <row r="10" spans="2:16" s="185" customFormat="1" ht="15.75">
+      <c r="B10" s="260" t="s">
         <v>137</v>
       </c>
-      <c r="C10" s="239" t="s">
+      <c r="C10" s="262" t="s">
         <v>138</v>
       </c>
       <c r="D10" s="186">
@@ -4820,7 +4828,7 @@
         <v>139</v>
       </c>
       <c r="F10" s="188"/>
-      <c r="G10" s="296"/>
+      <c r="G10" s="228"/>
       <c r="I10" s="219"/>
       <c r="J10" s="219"/>
       <c r="K10" s="219"/>
@@ -4830,17 +4838,17 @@
       <c r="O10" s="220"/>
       <c r="P10" s="220"/>
     </row>
-    <row r="11" spans="2:16" s="185" customFormat="1" ht="15.6">
-      <c r="B11" s="238"/>
-      <c r="C11" s="233"/>
-      <c r="D11" s="240">
+    <row r="11" spans="2:16" s="185" customFormat="1" ht="15.75">
+      <c r="B11" s="261"/>
+      <c r="C11" s="263"/>
+      <c r="D11" s="264">
         <v>61251</v>
       </c>
       <c r="E11" s="190" t="s">
         <v>140</v>
       </c>
       <c r="F11" s="188"/>
-      <c r="G11" s="297"/>
+      <c r="G11" s="229"/>
       <c r="I11" s="219"/>
       <c r="J11" s="219"/>
       <c r="K11" s="219"/>
@@ -4850,15 +4858,15 @@
       <c r="O11" s="220"/>
       <c r="P11" s="220"/>
     </row>
-    <row r="12" spans="2:16" s="185" customFormat="1" ht="15.6">
-      <c r="B12" s="238"/>
-      <c r="C12" s="233"/>
-      <c r="D12" s="241"/>
+    <row r="12" spans="2:16" s="185" customFormat="1" ht="15.75">
+      <c r="B12" s="261"/>
+      <c r="C12" s="263"/>
+      <c r="D12" s="265"/>
       <c r="E12" s="190" t="s">
         <v>141</v>
       </c>
       <c r="F12" s="188"/>
-      <c r="G12" s="297"/>
+      <c r="G12" s="229"/>
       <c r="I12" s="219"/>
       <c r="J12" s="219"/>
       <c r="K12" s="219"/>
@@ -4868,15 +4876,15 @@
       <c r="O12" s="220"/>
       <c r="P12" s="220"/>
     </row>
-    <row r="13" spans="2:16" s="185" customFormat="1" ht="15.6">
-      <c r="B13" s="238"/>
-      <c r="C13" s="233"/>
-      <c r="D13" s="242"/>
+    <row r="13" spans="2:16" s="185" customFormat="1" ht="15.75">
+      <c r="B13" s="261"/>
+      <c r="C13" s="263"/>
+      <c r="D13" s="266"/>
       <c r="E13" s="190" t="s">
         <v>142</v>
       </c>
       <c r="F13" s="188"/>
-      <c r="G13" s="297"/>
+      <c r="G13" s="229"/>
       <c r="I13" s="219"/>
       <c r="J13" s="219"/>
       <c r="K13" s="219"/>
@@ -4886,8 +4894,8 @@
       <c r="O13" s="220"/>
       <c r="P13" s="220"/>
     </row>
-    <row r="14" spans="2:16" s="185" customFormat="1" ht="15.6">
-      <c r="B14" s="238"/>
+    <row r="14" spans="2:16" s="185" customFormat="1" ht="15.75">
+      <c r="B14" s="261"/>
       <c r="C14" s="191" t="s">
         <v>143</v>
       </c>
@@ -4898,7 +4906,7 @@
         <v>144</v>
       </c>
       <c r="F14" s="188"/>
-      <c r="G14" s="297"/>
+      <c r="G14" s="229"/>
       <c r="I14" s="219"/>
       <c r="J14" s="219"/>
       <c r="K14" s="219"/>
@@ -4908,19 +4916,19 @@
       <c r="O14" s="220"/>
       <c r="P14" s="220"/>
     </row>
-    <row r="15" spans="2:16" s="185" customFormat="1" ht="15.6">
-      <c r="B15" s="238"/>
-      <c r="C15" s="230" t="s">
+    <row r="15" spans="2:16" s="185" customFormat="1" ht="15.75">
+      <c r="B15" s="261"/>
+      <c r="C15" s="267" t="s">
         <v>145</v>
       </c>
-      <c r="D15" s="240">
+      <c r="D15" s="264">
         <v>61321</v>
       </c>
       <c r="E15" s="190" t="s">
         <v>146</v>
       </c>
       <c r="F15" s="222"/>
-      <c r="G15" s="297"/>
+      <c r="G15" s="229"/>
       <c r="I15" s="219"/>
       <c r="J15" s="219"/>
       <c r="K15" s="219"/>
@@ -4930,15 +4938,15 @@
       <c r="O15" s="220"/>
       <c r="P15" s="220"/>
     </row>
-    <row r="16" spans="2:16" s="185" customFormat="1" ht="15.6">
-      <c r="B16" s="238"/>
-      <c r="C16" s="232"/>
-      <c r="D16" s="242"/>
+    <row r="16" spans="2:16" s="185" customFormat="1" ht="15.75">
+      <c r="B16" s="261"/>
+      <c r="C16" s="268"/>
+      <c r="D16" s="266"/>
       <c r="E16" s="190" t="s">
         <v>147</v>
       </c>
       <c r="F16" s="222"/>
-      <c r="G16" s="297"/>
+      <c r="G16" s="229"/>
       <c r="I16" s="219"/>
       <c r="J16" s="219"/>
       <c r="K16" s="219"/>
@@ -4948,9 +4956,9 @@
       <c r="O16" s="220"/>
       <c r="P16" s="220"/>
     </row>
-    <row r="17" spans="2:16" s="185" customFormat="1" ht="15.6">
-      <c r="B17" s="238"/>
-      <c r="C17" s="233" t="s">
+    <row r="17" spans="2:16" s="185" customFormat="1" ht="15.75">
+      <c r="B17" s="261"/>
+      <c r="C17" s="263" t="s">
         <v>148</v>
       </c>
       <c r="D17" s="192">
@@ -4960,7 +4968,7 @@
         <v>149</v>
       </c>
       <c r="F17" s="188"/>
-      <c r="G17" s="297"/>
+      <c r="G17" s="229"/>
       <c r="I17" s="219"/>
       <c r="J17" s="219"/>
       <c r="K17" s="219"/>
@@ -4970,9 +4978,9 @@
       <c r="O17" s="220"/>
       <c r="P17" s="220"/>
     </row>
-    <row r="18" spans="2:16" s="185" customFormat="1" ht="15.6">
-      <c r="B18" s="238"/>
-      <c r="C18" s="233"/>
+    <row r="18" spans="2:16" s="185" customFormat="1" ht="15.75">
+      <c r="B18" s="261"/>
+      <c r="C18" s="263"/>
       <c r="D18" s="193">
         <v>61332</v>
       </c>
@@ -4980,7 +4988,7 @@
         <v>150</v>
       </c>
       <c r="F18" s="188"/>
-      <c r="G18" s="297"/>
+      <c r="G18" s="229"/>
       <c r="I18" s="219"/>
       <c r="J18" s="219"/>
       <c r="K18" s="219"/>
@@ -4990,17 +4998,17 @@
       <c r="O18" s="220"/>
       <c r="P18" s="220"/>
     </row>
-    <row r="19" spans="2:16" s="185" customFormat="1" ht="15.6">
-      <c r="B19" s="238"/>
-      <c r="C19" s="233"/>
-      <c r="D19" s="240">
+    <row r="19" spans="2:16" s="185" customFormat="1" ht="15.75">
+      <c r="B19" s="261"/>
+      <c r="C19" s="263"/>
+      <c r="D19" s="264">
         <v>61335</v>
       </c>
       <c r="E19" s="190" t="s">
         <v>151</v>
       </c>
       <c r="F19" s="188"/>
-      <c r="G19" s="297"/>
+      <c r="G19" s="229"/>
       <c r="I19" s="219"/>
       <c r="J19" s="219"/>
       <c r="K19" s="219"/>
@@ -5010,15 +5018,15 @@
       <c r="O19" s="220"/>
       <c r="P19" s="220"/>
     </row>
-    <row r="20" spans="2:16" s="185" customFormat="1" ht="15.6">
-      <c r="B20" s="238"/>
-      <c r="C20" s="233"/>
-      <c r="D20" s="241"/>
+    <row r="20" spans="2:16" s="185" customFormat="1" ht="15.75">
+      <c r="B20" s="261"/>
+      <c r="C20" s="263"/>
+      <c r="D20" s="265"/>
       <c r="E20" s="190" t="s">
         <v>152</v>
       </c>
       <c r="F20" s="188"/>
-      <c r="G20" s="297"/>
+      <c r="G20" s="229"/>
       <c r="I20" s="219"/>
       <c r="J20" s="219"/>
       <c r="K20" s="219"/>
@@ -5028,15 +5036,15 @@
       <c r="O20" s="220"/>
       <c r="P20" s="220"/>
     </row>
-    <row r="21" spans="2:16" s="185" customFormat="1" ht="15.6">
-      <c r="B21" s="238"/>
-      <c r="C21" s="233"/>
-      <c r="D21" s="242"/>
+    <row r="21" spans="2:16" s="185" customFormat="1" ht="15.75">
+      <c r="B21" s="261"/>
+      <c r="C21" s="263"/>
+      <c r="D21" s="266"/>
       <c r="E21" s="190" t="s">
         <v>153</v>
       </c>
       <c r="F21" s="188"/>
-      <c r="G21" s="297"/>
+      <c r="G21" s="229"/>
       <c r="I21" s="219"/>
       <c r="J21" s="219"/>
       <c r="K21" s="219"/>
@@ -5046,9 +5054,9 @@
       <c r="O21" s="220"/>
       <c r="P21" s="220"/>
     </row>
-    <row r="22" spans="2:16" s="185" customFormat="1" ht="15.6">
-      <c r="B22" s="238"/>
-      <c r="C22" s="233" t="s">
+    <row r="22" spans="2:16" s="185" customFormat="1" ht="15.75">
+      <c r="B22" s="261"/>
+      <c r="C22" s="263" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="192">
@@ -5058,7 +5066,7 @@
         <v>154</v>
       </c>
       <c r="F22" s="188"/>
-      <c r="G22" s="297"/>
+      <c r="G22" s="229"/>
       <c r="I22" s="219"/>
       <c r="J22" s="219"/>
       <c r="K22" s="219"/>
@@ -5068,9 +5076,9 @@
       <c r="O22" s="220"/>
       <c r="P22" s="220"/>
     </row>
-    <row r="23" spans="2:16" s="185" customFormat="1" ht="15.6">
-      <c r="B23" s="238"/>
-      <c r="C23" s="233"/>
+    <row r="23" spans="2:16" s="185" customFormat="1" ht="15.75">
+      <c r="B23" s="261"/>
+      <c r="C23" s="263"/>
       <c r="D23" s="192">
         <v>61426</v>
       </c>
@@ -5078,7 +5086,7 @@
         <v>155</v>
       </c>
       <c r="F23" s="188"/>
-      <c r="G23" s="298"/>
+      <c r="G23" s="230"/>
       <c r="I23" s="219"/>
       <c r="J23" s="219"/>
       <c r="K23" s="219"/>
@@ -5088,9 +5096,9 @@
       <c r="O23" s="220"/>
       <c r="P23" s="220"/>
     </row>
-    <row r="24" spans="2:16" s="185" customFormat="1" ht="15.6">
-      <c r="B24" s="238"/>
-      <c r="C24" s="233"/>
+    <row r="24" spans="2:16" s="185" customFormat="1" ht="15.75">
+      <c r="B24" s="261"/>
+      <c r="C24" s="263"/>
       <c r="D24" s="192">
         <v>61428</v>
       </c>
@@ -5098,7 +5106,7 @@
         <v>156</v>
       </c>
       <c r="F24" s="188"/>
-      <c r="G24" s="297"/>
+      <c r="G24" s="229"/>
       <c r="I24" s="219"/>
       <c r="J24" s="219"/>
       <c r="K24" s="219"/>
@@ -5108,9 +5116,9 @@
       <c r="O24" s="220"/>
       <c r="P24" s="220"/>
     </row>
-    <row r="25" spans="2:16" s="185" customFormat="1" ht="15.6">
-      <c r="B25" s="238"/>
-      <c r="C25" s="230" t="s">
+    <row r="25" spans="2:16" s="185" customFormat="1" ht="15.75">
+      <c r="B25" s="261"/>
+      <c r="C25" s="267" t="s">
         <v>157</v>
       </c>
       <c r="D25" s="192">
@@ -5120,7 +5128,7 @@
         <v>158</v>
       </c>
       <c r="F25" s="188"/>
-      <c r="G25" s="298"/>
+      <c r="G25" s="230"/>
       <c r="I25" s="220"/>
       <c r="J25" s="220"/>
       <c r="K25" s="189"/>
@@ -5128,9 +5136,9 @@
       <c r="M25" s="220"/>
       <c r="N25" s="220"/>
     </row>
-    <row r="26" spans="2:16" s="185" customFormat="1" ht="15.6">
-      <c r="B26" s="238"/>
-      <c r="C26" s="231"/>
+    <row r="26" spans="2:16" s="185" customFormat="1" ht="15.75">
+      <c r="B26" s="261"/>
+      <c r="C26" s="271"/>
       <c r="D26" s="192">
         <v>61433</v>
       </c>
@@ -5138,7 +5146,7 @@
         <v>159</v>
       </c>
       <c r="F26" s="188"/>
-      <c r="G26" s="297"/>
+      <c r="G26" s="229"/>
       <c r="I26" s="220"/>
       <c r="J26" s="220"/>
       <c r="K26" s="189"/>
@@ -5146,9 +5154,9 @@
       <c r="M26" s="220"/>
       <c r="N26" s="220"/>
     </row>
-    <row r="27" spans="2:16" s="185" customFormat="1" ht="15.6">
-      <c r="B27" s="238"/>
-      <c r="C27" s="231"/>
+    <row r="27" spans="2:16" s="185" customFormat="1" ht="15.75">
+      <c r="B27" s="261"/>
+      <c r="C27" s="271"/>
       <c r="D27" s="192">
         <v>61435</v>
       </c>
@@ -5156,7 +5164,7 @@
         <v>160</v>
       </c>
       <c r="F27" s="188"/>
-      <c r="G27" s="297"/>
+      <c r="G27" s="229"/>
       <c r="I27" s="220"/>
       <c r="J27" s="220"/>
       <c r="K27" s="189"/>
@@ -5164,9 +5172,9 @@
       <c r="M27" s="220"/>
       <c r="N27" s="220"/>
     </row>
-    <row r="28" spans="2:16" s="185" customFormat="1" ht="15.6">
-      <c r="B28" s="238"/>
-      <c r="C28" s="231"/>
+    <row r="28" spans="2:16" s="185" customFormat="1" ht="15.75">
+      <c r="B28" s="261"/>
+      <c r="C28" s="271"/>
       <c r="D28" s="192">
         <v>61435</v>
       </c>
@@ -5174,12 +5182,12 @@
         <v>161</v>
       </c>
       <c r="F28" s="188"/>
-      <c r="G28" s="297"/>
+      <c r="G28" s="229"/>
       <c r="K28" s="189"/>
     </row>
-    <row r="29" spans="2:16" s="185" customFormat="1" ht="15.6">
-      <c r="B29" s="238"/>
-      <c r="C29" s="232"/>
+    <row r="29" spans="2:16" s="185" customFormat="1" ht="15.75">
+      <c r="B29" s="261"/>
+      <c r="C29" s="268"/>
       <c r="D29" s="192">
         <v>61436</v>
       </c>
@@ -5187,11 +5195,11 @@
         <v>162</v>
       </c>
       <c r="F29" s="188"/>
-      <c r="G29" s="297"/>
+      <c r="G29" s="229"/>
       <c r="K29" s="189"/>
     </row>
-    <row r="30" spans="2:16" s="185" customFormat="1" ht="15.6">
-      <c r="B30" s="238"/>
+    <row r="30" spans="2:16" s="185" customFormat="1" ht="15.75">
+      <c r="B30" s="261"/>
       <c r="C30" s="195" t="s">
         <v>163</v>
       </c>
@@ -5202,11 +5210,11 @@
         <v>164</v>
       </c>
       <c r="F30" s="188"/>
-      <c r="G30" s="297"/>
+      <c r="G30" s="229"/>
       <c r="K30" s="189"/>
     </row>
-    <row r="31" spans="2:16" s="185" customFormat="1" ht="15.6">
-      <c r="B31" s="238"/>
+    <row r="31" spans="2:16" s="185" customFormat="1" ht="15.75">
+      <c r="B31" s="261"/>
       <c r="C31" s="196" t="s">
         <v>165</v>
       </c>
@@ -5217,12 +5225,12 @@
         <v>166</v>
       </c>
       <c r="F31" s="188"/>
-      <c r="G31" s="297"/>
+      <c r="G31" s="229"/>
       <c r="K31" s="189"/>
     </row>
-    <row r="32" spans="2:16" s="185" customFormat="1" ht="15.6">
-      <c r="B32" s="238"/>
-      <c r="C32" s="233" t="s">
+    <row r="32" spans="2:16" s="185" customFormat="1" ht="15.75">
+      <c r="B32" s="261"/>
+      <c r="C32" s="263" t="s">
         <v>167</v>
       </c>
       <c r="D32" s="192">
@@ -5232,12 +5240,12 @@
         <v>168</v>
       </c>
       <c r="F32" s="188"/>
-      <c r="G32" s="297"/>
+      <c r="G32" s="229"/>
       <c r="K32" s="189"/>
     </row>
-    <row r="33" spans="2:11" s="185" customFormat="1" ht="15.6">
-      <c r="B33" s="238"/>
-      <c r="C33" s="233"/>
+    <row r="33" spans="2:11" s="185" customFormat="1" ht="15.75">
+      <c r="B33" s="261"/>
+      <c r="C33" s="263"/>
       <c r="D33" s="192">
         <v>61455</v>
       </c>
@@ -5245,12 +5253,12 @@
         <v>169</v>
       </c>
       <c r="F33" s="188"/>
-      <c r="G33" s="299"/>
+      <c r="G33" s="231"/>
       <c r="K33" s="189"/>
     </row>
-    <row r="34" spans="2:11" s="185" customFormat="1" ht="15.6">
-      <c r="B34" s="238"/>
-      <c r="C34" s="233" t="s">
+    <row r="34" spans="2:11" s="185" customFormat="1" ht="15.75">
+      <c r="B34" s="261"/>
+      <c r="C34" s="263" t="s">
         <v>170</v>
       </c>
       <c r="D34" s="192">
@@ -5260,23 +5268,23 @@
         <v>171</v>
       </c>
       <c r="F34" s="188"/>
-      <c r="G34" s="299"/>
+      <c r="G34" s="231"/>
       <c r="K34" s="189"/>
     </row>
-    <row r="35" spans="2:11" s="185" customFormat="1" ht="15.6">
-      <c r="B35" s="238"/>
-      <c r="C35" s="233"/>
+    <row r="35" spans="2:11" s="185" customFormat="1" ht="15.75">
+      <c r="B35" s="261"/>
+      <c r="C35" s="263"/>
       <c r="D35" s="192"/>
       <c r="E35" s="197" t="s">
         <v>172</v>
       </c>
       <c r="F35" s="188"/>
-      <c r="G35" s="299"/>
+      <c r="G35" s="231"/>
       <c r="K35" s="189"/>
     </row>
-    <row r="36" spans="2:11" s="185" customFormat="1" ht="15.6">
-      <c r="B36" s="238"/>
-      <c r="C36" s="233"/>
+    <row r="36" spans="2:11" s="185" customFormat="1" ht="15.75">
+      <c r="B36" s="261"/>
+      <c r="C36" s="263"/>
       <c r="D36" s="192">
         <v>61673</v>
       </c>
@@ -5284,12 +5292,12 @@
         <v>173</v>
       </c>
       <c r="F36" s="222"/>
-      <c r="G36" s="299"/>
+      <c r="G36" s="231"/>
       <c r="K36" s="189"/>
     </row>
-    <row r="37" spans="2:11" s="185" customFormat="1" ht="15.6">
-      <c r="B37" s="238"/>
-      <c r="C37" s="230" t="s">
+    <row r="37" spans="2:11" s="185" customFormat="1" ht="15.75">
+      <c r="B37" s="261"/>
+      <c r="C37" s="267" t="s">
         <v>174</v>
       </c>
       <c r="D37" s="198">
@@ -5299,12 +5307,12 @@
         <v>175</v>
       </c>
       <c r="F37" s="223"/>
-      <c r="G37" s="300"/>
+      <c r="G37" s="232"/>
       <c r="K37" s="189"/>
     </row>
-    <row r="38" spans="2:11" s="185" customFormat="1" ht="15.6">
-      <c r="B38" s="238"/>
-      <c r="C38" s="231"/>
+    <row r="38" spans="2:11" s="185" customFormat="1" ht="15.75">
+      <c r="B38" s="261"/>
+      <c r="C38" s="271"/>
       <c r="D38" s="192">
         <v>61712</v>
       </c>
@@ -5312,12 +5320,12 @@
         <v>176</v>
       </c>
       <c r="F38" s="223"/>
-      <c r="G38" s="299"/>
+      <c r="G38" s="231"/>
       <c r="K38" s="189"/>
     </row>
-    <row r="39" spans="2:11" s="185" customFormat="1" ht="15.6">
-      <c r="B39" s="238"/>
-      <c r="C39" s="232"/>
+    <row r="39" spans="2:11" s="185" customFormat="1" ht="15.75">
+      <c r="B39" s="261"/>
+      <c r="C39" s="268"/>
       <c r="D39" s="192">
         <v>61713</v>
       </c>
@@ -5325,12 +5333,12 @@
         <v>177</v>
       </c>
       <c r="F39" s="223"/>
-      <c r="G39" s="299"/>
+      <c r="G39" s="231"/>
       <c r="K39" s="189"/>
     </row>
-    <row r="40" spans="2:11" s="185" customFormat="1" ht="15.6">
-      <c r="B40" s="238"/>
-      <c r="C40" s="233" t="s">
+    <row r="40" spans="2:11" s="185" customFormat="1" ht="15.75">
+      <c r="B40" s="261"/>
+      <c r="C40" s="263" t="s">
         <v>178</v>
       </c>
       <c r="D40" s="192">
@@ -5340,12 +5348,12 @@
         <v>179</v>
       </c>
       <c r="F40" s="222"/>
-      <c r="G40" s="297"/>
+      <c r="G40" s="229"/>
       <c r="K40" s="189"/>
     </row>
-    <row r="41" spans="2:11" s="185" customFormat="1" ht="16.2" thickBot="1">
-      <c r="B41" s="238"/>
-      <c r="C41" s="233"/>
+    <row r="41" spans="2:11" s="185" customFormat="1" ht="16.5" thickBot="1">
+      <c r="B41" s="261"/>
+      <c r="C41" s="263"/>
       <c r="D41" s="192">
         <v>61745</v>
       </c>
@@ -5353,12 +5361,12 @@
         <v>180</v>
       </c>
       <c r="F41" s="222"/>
-      <c r="G41" s="300"/>
+      <c r="G41" s="232"/>
       <c r="K41" s="189"/>
     </row>
-    <row r="42" spans="2:11" s="185" customFormat="1" ht="15.6">
-      <c r="B42" s="238"/>
-      <c r="C42" s="243" t="s">
+    <row r="42" spans="2:11" s="185" customFormat="1" ht="15.75">
+      <c r="B42" s="261"/>
+      <c r="C42" s="269" t="s">
         <v>181</v>
       </c>
       <c r="D42" s="200">
@@ -5368,12 +5376,12 @@
         <v>182</v>
       </c>
       <c r="F42" s="188"/>
-      <c r="G42" s="301"/>
+      <c r="G42" s="233"/>
       <c r="K42" s="189"/>
     </row>
-    <row r="43" spans="2:11" s="185" customFormat="1" ht="16.2" thickBot="1">
-      <c r="B43" s="238"/>
-      <c r="C43" s="244"/>
+    <row r="43" spans="2:11" s="185" customFormat="1" ht="16.5" thickBot="1">
+      <c r="B43" s="261"/>
+      <c r="C43" s="270"/>
       <c r="D43" s="202">
         <v>5165</v>
       </c>
@@ -5381,12 +5389,12 @@
         <v>183</v>
       </c>
       <c r="F43" s="204"/>
-      <c r="G43" s="302" t="s">
+      <c r="G43" s="234" t="s">
         <v>186</v>
       </c>
       <c r="K43" s="189"/>
     </row>
-    <row r="44" spans="2:11">
+    <row r="44" spans="2:11" ht="16.5">
       <c r="B44" s="205"/>
       <c r="C44" s="206"/>
       <c r="D44" s="207"/>
@@ -5410,7 +5418,7 @@
       <c r="J45" s="208"/>
       <c r="K45" s="209"/>
     </row>
-    <row r="46" spans="2:11">
+    <row r="46" spans="2:11" ht="16.5">
       <c r="B46" s="205"/>
       <c r="C46" s="210"/>
       <c r="D46" s="211"/>
@@ -5422,7 +5430,7 @@
       <c r="J46" s="208"/>
       <c r="K46" s="209"/>
     </row>
-    <row r="47" spans="2:11">
+    <row r="47" spans="2:11" ht="16.5">
       <c r="B47" s="205"/>
       <c r="C47" s="210"/>
       <c r="D47" s="211"/>
@@ -5434,7 +5442,7 @@
       <c r="J47" s="208"/>
       <c r="K47" s="209"/>
     </row>
-    <row r="48" spans="2:11">
+    <row r="48" spans="2:11" ht="16.5">
       <c r="B48" s="205"/>
       <c r="C48" s="210"/>
       <c r="D48" s="211"/>
@@ -5446,7 +5454,7 @@
       <c r="J48" s="208"/>
       <c r="K48" s="209"/>
     </row>
-    <row r="49" spans="2:11">
+    <row r="49" spans="2:11" ht="16.5">
       <c r="B49" s="205"/>
       <c r="C49" s="210"/>
       <c r="D49" s="211"/>
@@ -5470,7 +5478,7 @@
       <c r="J50" s="208"/>
       <c r="K50" s="209"/>
     </row>
-    <row r="51" spans="2:11">
+    <row r="51" spans="2:11" ht="16.5">
       <c r="B51" s="205"/>
       <c r="C51" s="210"/>
       <c r="D51" s="211"/>
@@ -5482,7 +5490,7 @@
       <c r="J51" s="208"/>
       <c r="K51" s="209"/>
     </row>
-    <row r="52" spans="2:11" ht="14.4" customHeight="1">
+    <row r="52" spans="2:11" ht="14.45" customHeight="1">
       <c r="B52" s="205"/>
       <c r="C52" s="213"/>
       <c r="D52" s="205"/>
@@ -5494,7 +5502,7 @@
       <c r="J52" s="215"/>
       <c r="K52" s="209"/>
     </row>
-    <row r="53" spans="2:11">
+    <row r="53" spans="2:11" ht="16.5">
       <c r="B53" s="205"/>
       <c r="C53" s="213"/>
       <c r="D53" s="205"/>
@@ -5522,6 +5530,9 @@
     <row r="61" spans="2:11" ht="27" customHeight="1"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C4:G4"/>
     <mergeCell ref="B10:B43"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="D11:D13"/>
@@ -5536,9 +5547,6 @@
     <mergeCell ref="C34:C36"/>
     <mergeCell ref="C37:C39"/>
     <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5556,33 +5564,33 @@
       <selection pane="bottomRight" activeCell="A17" sqref="A17:A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="12" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5546875" style="12"/>
-    <col min="17" max="17" width="11.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11.5546875" style="12"/>
+    <col min="13" max="13" width="10.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" style="12"/>
+    <col min="17" max="17" width="11.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.5703125" style="12"/>
     <col min="21" max="21" width="6" style="12" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="7" style="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.5546875" style="12"/>
+    <col min="23" max="16384" width="11.5703125" style="12"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" ht="28.8">
+    <row r="2" spans="1:23" ht="45">
       <c r="A2" s="12" t="s">
         <v>57</v>
       </c>
@@ -5590,7 +5598,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="15" thickBot="1">
+    <row r="3" spans="1:23" ht="15.75" thickBot="1">
       <c r="N3" s="99" t="s">
         <v>91</v>
       </c>
@@ -5599,55 +5607,55 @@
       </c>
     </row>
     <row r="4" spans="1:23">
-      <c r="B4" s="256" t="s">
+      <c r="B4" s="286" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="258" t="s">
+      <c r="C4" s="288" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="250" t="s">
+      <c r="D4" s="280" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="254" t="s">
+      <c r="E4" s="284" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="260" t="s">
+      <c r="F4" s="290" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="261"/>
-      <c r="H4" s="262"/>
-      <c r="I4" s="263" t="s">
+      <c r="G4" s="291"/>
+      <c r="H4" s="292"/>
+      <c r="I4" s="293" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="261"/>
-      <c r="K4" s="262"/>
-      <c r="L4" s="250" t="s">
+      <c r="J4" s="291"/>
+      <c r="K4" s="292"/>
+      <c r="L4" s="280" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="252" t="s">
+      <c r="M4" s="282" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="252" t="s">
+      <c r="N4" s="282" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="252" t="s">
+      <c r="O4" s="282" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="252" t="s">
+      <c r="P4" s="282" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="254" t="s">
+      <c r="Q4" s="284" t="s">
         <v>21</v>
       </c>
-      <c r="R4" s="248" t="s">
+      <c r="R4" s="278" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="55.8" thickBot="1">
-      <c r="B5" s="257"/>
-      <c r="C5" s="259"/>
-      <c r="D5" s="251"/>
-      <c r="E5" s="255"/>
+    <row r="5" spans="1:23" ht="60.75" thickBot="1">
+      <c r="B5" s="287"/>
+      <c r="C5" s="289"/>
+      <c r="D5" s="281"/>
+      <c r="E5" s="285"/>
       <c r="F5" s="59" t="s">
         <v>23</v>
       </c>
@@ -5666,19 +5674,19 @@
       <c r="K5" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="251"/>
-      <c r="M5" s="253"/>
-      <c r="N5" s="253"/>
-      <c r="O5" s="253"/>
-      <c r="P5" s="253"/>
-      <c r="Q5" s="255"/>
-      <c r="R5" s="249"/>
+      <c r="L5" s="281"/>
+      <c r="M5" s="283"/>
+      <c r="N5" s="283"/>
+      <c r="O5" s="283"/>
+      <c r="P5" s="283"/>
+      <c r="Q5" s="285"/>
+      <c r="R5" s="279"/>
       <c r="T5" s="12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="55.8" thickBot="1">
-      <c r="A6" s="245" t="s">
+    <row r="6" spans="1:23" ht="66.75" thickBot="1">
+      <c r="A6" s="275" t="s">
         <v>80</v>
       </c>
       <c r="B6" s="82" t="s">
@@ -5687,7 +5695,7 @@
       <c r="C6" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="303"/>
+      <c r="D6" s="235"/>
       <c r="E6" s="91"/>
       <c r="F6" s="89"/>
       <c r="G6" s="90"/>
@@ -5731,15 +5739,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="15" thickBot="1">
-      <c r="A7" s="246"/>
+    <row r="7" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A7" s="276"/>
       <c r="B7" s="83"/>
       <c r="C7" s="67"/>
-      <c r="D7" s="304"/>
-      <c r="E7" s="305"/>
-      <c r="F7" s="306"/>
-      <c r="G7" s="307"/>
-      <c r="H7" s="308"/>
+      <c r="D7" s="236"/>
+      <c r="E7" s="237"/>
+      <c r="F7" s="238"/>
+      <c r="G7" s="239"/>
+      <c r="H7" s="240"/>
       <c r="I7" s="65"/>
       <c r="J7" s="13"/>
       <c r="K7" s="63"/>
@@ -5761,15 +5769,15 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="42" thickBot="1">
-      <c r="A8" s="246"/>
+    <row r="8" spans="1:23" ht="66.75" thickBot="1">
+      <c r="A8" s="276"/>
       <c r="B8" s="82" t="s">
         <v>58</v>
       </c>
       <c r="C8" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="309"/>
+      <c r="D8" s="241"/>
       <c r="E8" s="88"/>
       <c r="F8" s="86"/>
       <c r="G8" s="87"/>
@@ -5815,15 +5823,15 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="15" thickBot="1">
-      <c r="A9" s="246"/>
+    <row r="9" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A9" s="276"/>
       <c r="B9" s="83"/>
       <c r="C9" s="67"/>
-      <c r="D9" s="304"/>
-      <c r="E9" s="305"/>
-      <c r="F9" s="306"/>
-      <c r="G9" s="307"/>
-      <c r="H9" s="308"/>
+      <c r="D9" s="236"/>
+      <c r="E9" s="237"/>
+      <c r="F9" s="238"/>
+      <c r="G9" s="239"/>
+      <c r="H9" s="240"/>
       <c r="I9" s="65"/>
       <c r="J9" s="20"/>
       <c r="K9" s="40"/>
@@ -5845,15 +5853,15 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="15" thickBot="1">
-      <c r="A10" s="246"/>
+    <row r="10" spans="1:23" ht="17.25" thickBot="1">
+      <c r="A10" s="276"/>
       <c r="B10" s="82" t="s">
         <v>63</v>
       </c>
       <c r="C10" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="309"/>
+      <c r="D10" s="241"/>
       <c r="E10" s="88"/>
       <c r="F10" s="86"/>
       <c r="G10" s="87"/>
@@ -5903,15 +5911,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="15" thickBot="1">
-      <c r="A11" s="246"/>
+    <row r="11" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A11" s="276"/>
       <c r="B11" s="83"/>
       <c r="C11" s="67"/>
-      <c r="D11" s="304"/>
-      <c r="E11" s="305"/>
-      <c r="F11" s="306"/>
-      <c r="G11" s="307"/>
-      <c r="H11" s="308"/>
+      <c r="D11" s="236"/>
+      <c r="E11" s="237"/>
+      <c r="F11" s="238"/>
+      <c r="G11" s="239"/>
+      <c r="H11" s="240"/>
       <c r="I11" s="65"/>
       <c r="J11" s="13"/>
       <c r="K11" s="63"/>
@@ -5933,15 +5941,15 @@
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="41.4">
-      <c r="A12" s="246"/>
+    <row r="12" spans="1:23" ht="49.5">
+      <c r="A12" s="276"/>
       <c r="B12" s="84" t="s">
         <v>69</v>
       </c>
       <c r="C12" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="309"/>
+      <c r="D12" s="241"/>
       <c r="E12" s="88"/>
       <c r="F12" s="86"/>
       <c r="G12" s="87"/>
@@ -5988,15 +5996,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="15" thickBot="1">
-      <c r="A13" s="246"/>
+    <row r="13" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A13" s="276"/>
       <c r="B13" s="83"/>
       <c r="C13" s="67"/>
-      <c r="D13" s="304"/>
-      <c r="E13" s="305"/>
-      <c r="F13" s="304"/>
-      <c r="G13" s="310"/>
-      <c r="H13" s="305"/>
+      <c r="D13" s="236"/>
+      <c r="E13" s="237"/>
+      <c r="F13" s="236"/>
+      <c r="G13" s="242"/>
+      <c r="H13" s="237"/>
       <c r="I13" s="37"/>
       <c r="J13" s="37"/>
       <c r="K13" s="38"/>
@@ -6018,19 +6026,19 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="28.2" thickBot="1">
-      <c r="A14" s="247"/>
+    <row r="14" spans="1:23" ht="33.75" thickBot="1">
+      <c r="A14" s="277"/>
       <c r="B14" s="82" t="s">
         <v>70</v>
       </c>
       <c r="C14" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="311"/>
-      <c r="E14" s="312"/>
-      <c r="F14" s="313"/>
-      <c r="G14" s="314"/>
-      <c r="H14" s="312"/>
+      <c r="D14" s="243"/>
+      <c r="E14" s="244"/>
+      <c r="F14" s="245"/>
+      <c r="G14" s="246"/>
+      <c r="H14" s="244"/>
       <c r="I14" s="58">
         <f>F14*2829*(27.83/100)</f>
         <v>0</v>
@@ -6067,9 +6075,9 @@
         <v>766</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="15" thickBot="1"/>
-    <row r="17" spans="1:18" ht="37.950000000000003" customHeight="1">
-      <c r="A17" s="245" t="s">
+    <row r="16" spans="1:23" ht="15.75" thickBot="1"/>
+    <row r="17" spans="1:18" ht="37.9" customHeight="1">
+      <c r="A17" s="275" t="s">
         <v>92</v>
       </c>
       <c r="B17" s="102" t="s">
@@ -6078,7 +6086,7 @@
       <c r="C17" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="315"/>
+      <c r="D17" s="247"/>
       <c r="E17" s="111"/>
       <c r="F17" s="110"/>
       <c r="G17" s="101"/>
@@ -6115,15 +6123,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="26.4">
-      <c r="A18" s="246"/>
+    <row r="18" spans="1:18" ht="27">
+      <c r="A18" s="276"/>
       <c r="B18" s="103" t="s">
         <v>84</v>
       </c>
       <c r="C18" s="106" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="309"/>
+      <c r="D18" s="241"/>
       <c r="E18" s="88"/>
       <c r="F18" s="86"/>
       <c r="G18" s="87"/>
@@ -6160,19 +6168,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="27" thickBot="1">
-      <c r="A19" s="247"/>
+    <row r="19" spans="1:18" ht="27.75" thickBot="1">
+      <c r="A19" s="277"/>
       <c r="B19" s="104" t="s">
         <v>88</v>
       </c>
       <c r="C19" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="311"/>
-      <c r="E19" s="312"/>
-      <c r="F19" s="313"/>
-      <c r="G19" s="314"/>
-      <c r="H19" s="312"/>
+      <c r="D19" s="243"/>
+      <c r="E19" s="244"/>
+      <c r="F19" s="245"/>
+      <c r="G19" s="246"/>
+      <c r="H19" s="244"/>
       <c r="I19" s="44">
         <f>F19*2829*(27.83/100)</f>
         <v>0</v>
@@ -6239,33 +6247,33 @@
       <selection pane="bottomRight" activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="12" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5546875" style="12"/>
-    <col min="17" max="17" width="11.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11.5546875" style="12"/>
+    <col min="13" max="13" width="10.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" style="12"/>
+    <col min="17" max="17" width="11.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.5703125" style="12"/>
     <col min="21" max="21" width="6" style="12" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="7" style="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.5546875" style="12"/>
+    <col min="23" max="16384" width="11.5703125" style="12"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" ht="28.8">
+    <row r="2" spans="1:23" ht="45">
       <c r="A2" s="12" t="s">
         <v>57</v>
       </c>
@@ -6273,7 +6281,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="15" thickBot="1">
+    <row r="3" spans="1:23" ht="15.75" thickBot="1">
       <c r="N3" s="99" t="s">
         <v>91</v>
       </c>
@@ -6282,55 +6290,55 @@
       </c>
     </row>
     <row r="4" spans="1:23">
-      <c r="B4" s="256" t="s">
+      <c r="B4" s="286" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="258" t="s">
+      <c r="C4" s="288" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="250" t="s">
+      <c r="D4" s="280" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="254" t="s">
+      <c r="E4" s="284" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="260" t="s">
+      <c r="F4" s="290" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="261"/>
-      <c r="H4" s="262"/>
-      <c r="I4" s="263" t="s">
+      <c r="G4" s="291"/>
+      <c r="H4" s="292"/>
+      <c r="I4" s="293" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="261"/>
-      <c r="K4" s="262"/>
-      <c r="L4" s="250" t="s">
+      <c r="J4" s="291"/>
+      <c r="K4" s="292"/>
+      <c r="L4" s="280" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="252" t="s">
+      <c r="M4" s="282" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="252" t="s">
+      <c r="N4" s="282" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="252" t="s">
+      <c r="O4" s="282" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="252" t="s">
+      <c r="P4" s="282" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="254" t="s">
+      <c r="Q4" s="284" t="s">
         <v>21</v>
       </c>
-      <c r="R4" s="248" t="s">
+      <c r="R4" s="278" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="55.8" thickBot="1">
-      <c r="B5" s="257"/>
-      <c r="C5" s="259"/>
-      <c r="D5" s="251"/>
-      <c r="E5" s="255"/>
+    <row r="5" spans="1:23" ht="60.75" thickBot="1">
+      <c r="B5" s="287"/>
+      <c r="C5" s="289"/>
+      <c r="D5" s="281"/>
+      <c r="E5" s="285"/>
       <c r="F5" s="59" t="s">
         <v>23</v>
       </c>
@@ -6349,24 +6357,24 @@
       <c r="K5" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="251"/>
-      <c r="M5" s="253"/>
-      <c r="N5" s="253"/>
-      <c r="O5" s="253"/>
-      <c r="P5" s="253"/>
-      <c r="Q5" s="255"/>
-      <c r="R5" s="249"/>
+      <c r="L5" s="281"/>
+      <c r="M5" s="283"/>
+      <c r="N5" s="283"/>
+      <c r="O5" s="283"/>
+      <c r="P5" s="283"/>
+      <c r="Q5" s="285"/>
+      <c r="R5" s="279"/>
       <c r="T5" s="12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="15" thickBot="1">
-      <c r="A6" s="245" t="s">
+    <row r="6" spans="1:23" ht="17.25" thickBot="1">
+      <c r="A6" s="275" t="s">
         <v>188</v>
       </c>
       <c r="B6" s="82"/>
       <c r="C6" s="66"/>
-      <c r="D6" s="303"/>
+      <c r="D6" s="235"/>
       <c r="E6" s="91"/>
       <c r="F6" s="89"/>
       <c r="G6" s="90"/>
@@ -6410,15 +6418,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="15" thickBot="1">
-      <c r="A7" s="246"/>
+    <row r="7" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A7" s="276"/>
       <c r="B7" s="83"/>
       <c r="C7" s="67"/>
-      <c r="D7" s="304"/>
-      <c r="E7" s="305"/>
-      <c r="F7" s="306"/>
-      <c r="G7" s="307"/>
-      <c r="H7" s="308"/>
+      <c r="D7" s="236"/>
+      <c r="E7" s="237"/>
+      <c r="F7" s="238"/>
+      <c r="G7" s="239"/>
+      <c r="H7" s="240"/>
       <c r="I7" s="65"/>
       <c r="J7" s="13"/>
       <c r="K7" s="63"/>
@@ -6440,11 +6448,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="15" thickBot="1">
-      <c r="A8" s="246"/>
+    <row r="8" spans="1:23" ht="17.25" thickBot="1">
+      <c r="A8" s="276"/>
       <c r="B8" s="82"/>
       <c r="C8" s="68"/>
-      <c r="D8" s="309"/>
+      <c r="D8" s="241"/>
       <c r="E8" s="88"/>
       <c r="F8" s="86"/>
       <c r="G8" s="87"/>
@@ -6490,15 +6498,15 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="15" thickBot="1">
-      <c r="A9" s="246"/>
+    <row r="9" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A9" s="276"/>
       <c r="B9" s="83"/>
       <c r="C9" s="67"/>
-      <c r="D9" s="304"/>
-      <c r="E9" s="305"/>
-      <c r="F9" s="306"/>
-      <c r="G9" s="307"/>
-      <c r="H9" s="308"/>
+      <c r="D9" s="236"/>
+      <c r="E9" s="237"/>
+      <c r="F9" s="238"/>
+      <c r="G9" s="239"/>
+      <c r="H9" s="240"/>
       <c r="I9" s="65"/>
       <c r="J9" s="20"/>
       <c r="K9" s="40"/>
@@ -6520,11 +6528,11 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="15" thickBot="1">
-      <c r="A10" s="246"/>
+    <row r="10" spans="1:23" ht="17.25" thickBot="1">
+      <c r="A10" s="276"/>
       <c r="B10" s="82"/>
       <c r="C10" s="68"/>
-      <c r="D10" s="309"/>
+      <c r="D10" s="241"/>
       <c r="E10" s="88"/>
       <c r="F10" s="86"/>
       <c r="G10" s="87"/>
@@ -6574,15 +6582,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="15" thickBot="1">
-      <c r="A11" s="246"/>
+    <row r="11" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A11" s="276"/>
       <c r="B11" s="83"/>
       <c r="C11" s="67"/>
-      <c r="D11" s="304"/>
-      <c r="E11" s="305"/>
-      <c r="F11" s="306"/>
-      <c r="G11" s="307"/>
-      <c r="H11" s="308"/>
+      <c r="D11" s="236"/>
+      <c r="E11" s="237"/>
+      <c r="F11" s="238"/>
+      <c r="G11" s="239"/>
+      <c r="H11" s="240"/>
       <c r="I11" s="65"/>
       <c r="J11" s="13"/>
       <c r="K11" s="63"/>
@@ -6604,11 +6612,11 @@
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
-      <c r="A12" s="246"/>
+    <row r="12" spans="1:23" ht="16.5">
+      <c r="A12" s="276"/>
       <c r="B12" s="84"/>
       <c r="C12" s="68"/>
-      <c r="D12" s="309"/>
+      <c r="D12" s="241"/>
       <c r="E12" s="88"/>
       <c r="F12" s="86"/>
       <c r="G12" s="87"/>
@@ -6655,15 +6663,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="15" thickBot="1">
-      <c r="A13" s="246"/>
+    <row r="13" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A13" s="276"/>
       <c r="B13" s="83"/>
       <c r="C13" s="67"/>
-      <c r="D13" s="304"/>
-      <c r="E13" s="305"/>
-      <c r="F13" s="304"/>
-      <c r="G13" s="310"/>
-      <c r="H13" s="305"/>
+      <c r="D13" s="236"/>
+      <c r="E13" s="237"/>
+      <c r="F13" s="236"/>
+      <c r="G13" s="242"/>
+      <c r="H13" s="237"/>
       <c r="I13" s="37"/>
       <c r="J13" s="37"/>
       <c r="K13" s="38"/>
@@ -6685,15 +6693,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="15" thickBot="1">
-      <c r="A14" s="247"/>
+    <row r="14" spans="1:23" ht="17.25" thickBot="1">
+      <c r="A14" s="277"/>
       <c r="B14" s="82"/>
       <c r="C14" s="69"/>
-      <c r="D14" s="311"/>
-      <c r="E14" s="312"/>
-      <c r="F14" s="313"/>
-      <c r="G14" s="314"/>
-      <c r="H14" s="312"/>
+      <c r="D14" s="243"/>
+      <c r="E14" s="244"/>
+      <c r="F14" s="245"/>
+      <c r="G14" s="246"/>
+      <c r="H14" s="244"/>
       <c r="I14" s="58">
         <f>F14*2829*(27.83/100)</f>
         <v>0</v>
@@ -6760,74 +6768,74 @@
       <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" style="2" customWidth="1"/>
-    <col min="4" max="5" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="2" customWidth="1"/>
-    <col min="7" max="12" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="13.44140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="11.5546875" style="2"/>
-    <col min="16" max="16" width="14.33203125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.44140625" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="11.5546875" style="2"/>
+    <col min="1" max="1" width="7.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="2" customWidth="1"/>
+    <col min="4" max="5" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="2" customWidth="1"/>
+    <col min="7" max="12" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" style="2"/>
+    <col min="16" max="16" width="14.28515625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:18" ht="15" thickBot="1"/>
-    <row r="4" spans="2:18" ht="16.8">
-      <c r="B4" s="264" t="s">
+    <row r="3" spans="2:18" ht="15.75" thickBot="1"/>
+    <row r="4" spans="2:18" ht="16.5">
+      <c r="B4" s="310" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="266" t="s">
+      <c r="C4" s="312" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="268" t="s">
+      <c r="D4" s="314" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="270" t="s">
+      <c r="E4" s="316" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="272" t="s">
+      <c r="F4" s="307" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="273"/>
-      <c r="H4" s="274"/>
-      <c r="I4" s="272" t="s">
+      <c r="G4" s="308"/>
+      <c r="H4" s="309"/>
+      <c r="I4" s="307" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="273"/>
-      <c r="K4" s="274"/>
-      <c r="L4" s="282" t="s">
+      <c r="J4" s="308"/>
+      <c r="K4" s="309"/>
+      <c r="L4" s="301" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="284" t="s">
+      <c r="M4" s="303" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="284" t="s">
+      <c r="N4" s="303" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="284" t="s">
+      <c r="O4" s="303" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="286" t="s">
+      <c r="P4" s="305" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="284" t="s">
+      <c r="Q4" s="303" t="s">
         <v>21</v>
       </c>
-      <c r="R4" s="275" t="s">
+      <c r="R4" s="294" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="2:18" s="12" customFormat="1" ht="55.8" thickBot="1">
-      <c r="B5" s="265"/>
-      <c r="C5" s="267"/>
-      <c r="D5" s="269"/>
-      <c r="E5" s="271"/>
+    <row r="5" spans="2:18" s="12" customFormat="1" ht="60.75" thickBot="1">
+      <c r="B5" s="311"/>
+      <c r="C5" s="313"/>
+      <c r="D5" s="315"/>
+      <c r="E5" s="317"/>
       <c r="F5" s="59" t="s">
         <v>23</v>
       </c>
@@ -6846,22 +6854,22 @@
       <c r="K5" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="283"/>
-      <c r="M5" s="285"/>
-      <c r="N5" s="285"/>
-      <c r="O5" s="285"/>
-      <c r="P5" s="287"/>
-      <c r="Q5" s="285"/>
-      <c r="R5" s="276"/>
-    </row>
-    <row r="6" spans="2:18" s="119" customFormat="1" thickBot="1">
+      <c r="L5" s="302"/>
+      <c r="M5" s="304"/>
+      <c r="N5" s="304"/>
+      <c r="O5" s="304"/>
+      <c r="P5" s="306"/>
+      <c r="Q5" s="304"/>
+      <c r="R5" s="295"/>
+    </row>
+    <row r="6" spans="2:18" s="119" customFormat="1" ht="15.75" thickBot="1">
       <c r="B6" s="135" t="s">
         <v>98</v>
       </c>
       <c r="C6" s="121" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="316"/>
+      <c r="D6" s="248"/>
       <c r="E6" s="91"/>
       <c r="F6" s="89"/>
       <c r="G6" s="90"/>
@@ -6898,14 +6906,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:18" ht="28.2" thickBot="1">
+    <row r="7" spans="2:18" ht="43.5" thickBot="1">
       <c r="B7" s="117" t="s">
         <v>112</v>
       </c>
       <c r="C7" s="121" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="317"/>
+      <c r="D7" s="249"/>
       <c r="E7" s="88"/>
       <c r="F7" s="86"/>
       <c r="G7" s="87"/>
@@ -6942,14 +6950,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:18" ht="28.2" thickBot="1">
+    <row r="8" spans="2:18" ht="29.25" thickBot="1">
       <c r="B8" s="117" t="s">
         <v>113</v>
       </c>
       <c r="C8" s="121" t="s">
         <v>115</v>
       </c>
-      <c r="D8" s="317"/>
+      <c r="D8" s="249"/>
       <c r="E8" s="88"/>
       <c r="F8" s="86"/>
       <c r="G8" s="87"/>
@@ -6986,17 +6994,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:18" ht="42" thickBot="1">
+    <row r="9" spans="2:18" ht="57.75" thickBot="1">
       <c r="B9" s="117" t="s">
         <v>122</v>
       </c>
       <c r="C9" s="121" t="s">
         <v>121</v>
       </c>
-      <c r="D9" s="317"/>
-      <c r="E9" s="318"/>
-      <c r="F9" s="319"/>
-      <c r="G9" s="320"/>
+      <c r="D9" s="249"/>
+      <c r="E9" s="250"/>
+      <c r="F9" s="251"/>
+      <c r="G9" s="252"/>
       <c r="H9" s="88"/>
       <c r="I9" s="140">
         <f>F9*1367.79*(27.83/100)</f>
@@ -7030,18 +7038,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:18" ht="28.2" thickBot="1">
+    <row r="10" spans="2:18" ht="29.25" thickBot="1">
       <c r="B10" s="117" t="s">
         <v>117</v>
       </c>
       <c r="C10" s="131" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="321"/>
-      <c r="E10" s="322"/>
-      <c r="F10" s="323"/>
-      <c r="G10" s="324"/>
-      <c r="H10" s="312"/>
+      <c r="D10" s="253"/>
+      <c r="E10" s="254"/>
+      <c r="F10" s="255"/>
+      <c r="G10" s="256"/>
+      <c r="H10" s="244"/>
       <c r="I10" s="141">
         <f>F10*(14.81*6*26)*(27.83/100)</f>
         <v>0</v>
@@ -7081,29 +7089,29 @@
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
     </row>
-    <row r="15" spans="2:18" ht="15" thickBot="1"/>
-    <row r="16" spans="2:18" ht="16.2" thickBot="1">
+    <row r="15" spans="2:18" ht="15.75" thickBot="1"/>
+    <row r="16" spans="2:18" ht="16.5" thickBot="1">
       <c r="B16" s="147"/>
       <c r="C16" s="148"/>
-      <c r="D16" s="277" t="s">
+      <c r="D16" s="296" t="s">
         <v>100</v>
       </c>
-      <c r="E16" s="278"/>
-      <c r="F16" s="278"/>
-      <c r="G16" s="278"/>
-      <c r="H16" s="278"/>
-      <c r="I16" s="278"/>
-      <c r="J16" s="278"/>
-      <c r="K16" s="278"/>
-      <c r="L16" s="278"/>
-      <c r="M16" s="278"/>
-      <c r="N16" s="278"/>
-      <c r="O16" s="279"/>
-      <c r="P16" s="280" t="s">
+      <c r="E16" s="297"/>
+      <c r="F16" s="297"/>
+      <c r="G16" s="297"/>
+      <c r="H16" s="297"/>
+      <c r="I16" s="297"/>
+      <c r="J16" s="297"/>
+      <c r="K16" s="297"/>
+      <c r="L16" s="297"/>
+      <c r="M16" s="297"/>
+      <c r="N16" s="297"/>
+      <c r="O16" s="298"/>
+      <c r="P16" s="299" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="2:16" ht="47.4" thickBot="1">
+    <row r="17" spans="2:16" ht="48" thickBot="1">
       <c r="B17" s="164" t="s">
         <v>10</v>
       </c>
@@ -7146,9 +7154,9 @@
       <c r="O17" s="171" t="s">
         <v>110</v>
       </c>
-      <c r="P17" s="281"/>
-    </row>
-    <row r="18" spans="2:16" ht="16.2" thickBot="1">
+      <c r="P17" s="300"/>
+    </row>
+    <row r="18" spans="2:16" ht="16.5" thickBot="1">
       <c r="B18" s="165" t="str">
         <f t="shared" ref="B18:C22" si="4">+B6</f>
         <v xml:space="preserve">01/FSAC/2018 </v>
@@ -7177,7 +7185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:16" ht="31.8" thickBot="1">
+    <row r="19" spans="2:16" ht="32.25" thickBot="1">
       <c r="B19" s="165" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">01FUH2C/2019 </v>
@@ -7206,7 +7214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:16" ht="31.8" thickBot="1">
+    <row r="20" spans="2:16" ht="32.25" thickBot="1">
       <c r="B20" s="165" t="str">
         <f t="shared" si="4"/>
         <v>01/2019/ESI</v>
@@ -7235,7 +7243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:16" ht="47.4" thickBot="1">
+    <row r="21" spans="2:16" ht="48" thickBot="1">
       <c r="B21" s="165" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">06/CR-Tanger/2019 </v>
@@ -7264,7 +7272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:16" ht="31.8" thickBot="1">
+    <row r="22" spans="2:16" ht="32.25" thickBot="1">
       <c r="B22" s="166" t="str">
         <f t="shared" si="4"/>
         <v>05FUH2C/2020</v>
@@ -7298,6 +7306,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:H4"/>
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="D16:O16"/>
     <mergeCell ref="P16:P17"/>
@@ -7308,11 +7321,6 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="I4:K4"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7328,23 +7336,23 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="35.88671875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="35.85546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="13" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.33203125" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="11.5546875" style="2"/>
+    <col min="11" max="11" width="10.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:13">
@@ -7399,7 +7407,7 @@
         <v>7304.15</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="63" thickBot="1">
+    <row r="9" spans="1:13" ht="63.75" thickBot="1">
       <c r="B9" s="14" t="s">
         <v>42</v>
       </c>
@@ -7437,8 +7445,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="119" customFormat="1" ht="27.6">
-      <c r="A10" s="288" t="s">
+    <row r="10" spans="1:13" s="119" customFormat="1" ht="33">
+      <c r="A10" s="318" t="s">
         <v>80</v>
       </c>
       <c r="B10" s="22">
@@ -7489,7 +7497,7 @@
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="289"/>
+      <c r="A11" s="319"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="23"/>
@@ -7506,8 +7514,8 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" s="119" customFormat="1" ht="27.6">
-      <c r="A12" s="289"/>
+    <row r="12" spans="1:13" s="119" customFormat="1" ht="33">
+      <c r="A12" s="319"/>
       <c r="B12" s="22">
         <v>143996.88</v>
       </c>
@@ -7555,8 +7563,8 @@
         <v>5.7301643067611217</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="289"/>
+    <row r="13" spans="1:13" ht="16.5">
+      <c r="A13" s="319"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="24"/>
@@ -7570,8 +7578,8 @@
       <c r="L13" s="20"/>
       <c r="M13" s="20"/>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="289"/>
+    <row r="14" spans="1:13" ht="16.5">
+      <c r="A14" s="319"/>
       <c r="B14" s="22">
         <v>415501.92</v>
       </c>
@@ -7619,8 +7627,8 @@
         <v>5.7301643067611217</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="289"/>
+    <row r="15" spans="1:13" ht="16.5">
+      <c r="A15" s="319"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="24"/>
@@ -7634,8 +7642,8 @@
       <c r="L15" s="20"/>
       <c r="M15" s="20"/>
     </row>
-    <row r="16" spans="1:13" ht="27.6">
-      <c r="A16" s="289"/>
+    <row r="16" spans="1:13" ht="33">
+      <c r="A16" s="319"/>
       <c r="B16" s="16">
         <v>230256</v>
       </c>
@@ -7683,8 +7691,8 @@
         <v>5.7301643067611217</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="289"/>
+    <row r="17" spans="1:16" ht="16.5">
+      <c r="A17" s="319"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="24"/>
@@ -7698,8 +7706,8 @@
       <c r="L17" s="20"/>
       <c r="M17" s="20"/>
     </row>
-    <row r="18" spans="1:16" ht="28.2" thickBot="1">
-      <c r="A18" s="290"/>
+    <row r="18" spans="1:16" ht="33.75" thickBot="1">
+      <c r="A18" s="320"/>
       <c r="B18" s="16">
         <v>418804.56</v>
       </c>
@@ -7747,18 +7755,18 @@
         <v>5.7301643067611225</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="28" customFormat="1">
+    <row r="19" spans="1:16" s="28" customFormat="1" ht="16.5">
       <c r="D19" s="92"/>
       <c r="E19" s="93"/>
       <c r="F19" s="94"/>
     </row>
-    <row r="20" spans="1:16" s="28" customFormat="1">
+    <row r="20" spans="1:16" s="28" customFormat="1" ht="16.5">
       <c r="D20" s="92"/>
       <c r="E20" s="93"/>
       <c r="F20" s="94"/>
     </row>
-    <row r="21" spans="1:16" ht="27.6">
-      <c r="A21" s="291" t="s">
+    <row r="21" spans="1:16" ht="49.5">
+      <c r="A21" s="321" t="s">
         <v>92</v>
       </c>
       <c r="B21" s="52">
@@ -7809,7 +7817,7 @@
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="291"/>
+      <c r="A22" s="321"/>
       <c r="G22" s="95"/>
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
@@ -7818,8 +7826,8 @@
       <c r="L22" s="20"/>
       <c r="M22" s="20"/>
     </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="291"/>
+    <row r="23" spans="1:16" ht="16.5">
+      <c r="A23" s="321"/>
       <c r="B23" s="52">
         <v>264240</v>
       </c>
@@ -7868,7 +7876,7 @@
       </c>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="291"/>
+      <c r="A24" s="321"/>
       <c r="G24" s="95"/>
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
@@ -7877,8 +7885,8 @@
       <c r="L24" s="20"/>
       <c r="M24" s="20"/>
     </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="291"/>
+    <row r="25" spans="1:16" ht="16.5">
+      <c r="A25" s="321"/>
       <c r="B25" s="52">
         <v>271325.52</v>
       </c>
@@ -7926,20 +7934,20 @@
         <v>5.3702455767644013</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" ht="16.5">
       <c r="E26" s="93"/>
       <c r="N26" s="28"/>
       <c r="O26" s="28"/>
       <c r="P26" s="28"/>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" ht="16.5">
       <c r="E27" s="93"/>
       <c r="N27" s="28"/>
       <c r="O27" s="28"/>
       <c r="P27" s="28"/>
     </row>
     <row r="28" spans="1:16" ht="18" customHeight="1">
-      <c r="A28" s="292" t="s">
+      <c r="A28" s="322" t="s">
         <v>124</v>
       </c>
       <c r="B28" s="52">
@@ -7992,8 +8000,8 @@
       <c r="O28" s="126"/>
       <c r="P28" s="28"/>
     </row>
-    <row r="29" spans="1:16" ht="18">
-      <c r="A29" s="293"/>
+    <row r="29" spans="1:16" ht="18.75">
+      <c r="A29" s="323"/>
       <c r="C29" s="5"/>
       <c r="G29" s="20"/>
       <c r="H29" s="20"/>
@@ -8006,8 +8014,8 @@
       <c r="O29" s="126"/>
       <c r="P29" s="28"/>
     </row>
-    <row r="30" spans="1:16" ht="18">
-      <c r="A30" s="293"/>
+    <row r="30" spans="1:16" ht="18.75">
+      <c r="A30" s="323"/>
       <c r="B30" s="52">
         <v>292320</v>
       </c>
@@ -8058,8 +8066,8 @@
       <c r="O30" s="126"/>
       <c r="P30" s="28"/>
     </row>
-    <row r="31" spans="1:16" ht="18">
-      <c r="A31" s="293"/>
+    <row r="31" spans="1:16" ht="18.75">
+      <c r="A31" s="323"/>
       <c r="C31" s="5"/>
       <c r="G31" s="20"/>
       <c r="H31" s="20"/>
@@ -8072,8 +8080,8 @@
       <c r="O31" s="126"/>
       <c r="P31" s="28"/>
     </row>
-    <row r="32" spans="1:16" ht="18">
-      <c r="A32" s="293"/>
+    <row r="32" spans="1:16" ht="18.75">
+      <c r="A32" s="323"/>
       <c r="B32" s="52">
         <v>98895.360000000001</v>
       </c>
@@ -8125,7 +8133,7 @@
       <c r="P32" s="28"/>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="293"/>
+      <c r="A33" s="323"/>
       <c r="C33" s="5"/>
       <c r="G33" s="20"/>
       <c r="H33" s="20"/>
@@ -8138,8 +8146,8 @@
       <c r="O33" s="28"/>
       <c r="P33" s="28"/>
     </row>
-    <row r="34" spans="1:16" ht="27.6">
-      <c r="A34" s="293"/>
+    <row r="34" spans="1:16" ht="33">
+      <c r="A34" s="323"/>
       <c r="B34" s="52">
         <v>148800</v>
       </c>
@@ -8190,8 +8198,8 @@
       <c r="O34" s="28"/>
       <c r="P34" s="28"/>
     </row>
-    <row r="35" spans="1:16">
-      <c r="A35" s="293"/>
+    <row r="35" spans="1:16" ht="16.5">
+      <c r="A35" s="323"/>
       <c r="E35" s="17"/>
       <c r="G35" s="20"/>
       <c r="H35" s="20"/>
@@ -8201,8 +8209,8 @@
       <c r="L35" s="20"/>
       <c r="M35" s="20"/>
     </row>
-    <row r="36" spans="1:16">
-      <c r="A36" s="294"/>
+    <row r="36" spans="1:16" ht="16.5">
+      <c r="A36" s="324"/>
       <c r="B36" s="52">
         <v>574070.89</v>
       </c>
@@ -8295,7 +8303,7 @@
       <c r="O39" s="126"/>
       <c r="P39" s="28"/>
     </row>
-    <row r="40" spans="1:16" ht="18">
+    <row r="40" spans="1:16" ht="18.75">
       <c r="A40" s="325"/>
       <c r="C40" s="5"/>
       <c r="G40" s="20"/>
@@ -8309,7 +8317,7 @@
       <c r="O40" s="126"/>
       <c r="P40" s="28"/>
     </row>
-    <row r="41" spans="1:16" ht="18">
+    <row r="41" spans="1:16" ht="18.75">
       <c r="A41" s="325"/>
       <c r="B41" s="52"/>
       <c r="C41" s="5"/>
